--- a/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
+++ b/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
+++ b/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
+++ b/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,7 +879,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PacienteLE)
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3776,13 +3776,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>75</v>
@@ -4333,13 +4333,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
@@ -4450,7 +4450,7 @@
         <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
@@ -4668,13 +4668,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
+++ b/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
+++ b/docs/StructureDefinition-AllergyIntoleranceLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
